--- a/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07572630-784E-4CD3-B70B-CD4C546AC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829ADC92-06BD-44E5-AA06-1A9D7F879321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{053EDBBC-50FA-4FEC-B361-D2C6CEBBE3FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62B11D7E-935F-48B3-B3B1-89E8348AE38D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,68%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,13 +107,13 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,57%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,31 +128,31 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>96,25%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -161,19 +161,19 @@
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -182,43 +182,37 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -227,280 +221,292 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36B86D1-D40A-406F-9FA1-98BD54D8F7D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862657B7-4A8E-40E1-B661-3279F72C8A56}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1382,10 +1388,10 @@
         <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,13 +1406,13 @@
         <v>315137</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -1415,13 +1421,13 @@
         <v>365085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>876</v>
@@ -1430,13 +1436,13 @@
         <v>680222</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,7 +1498,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1504,13 +1510,13 @@
         <v>3570</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1519,13 +1525,13 @@
         <v>4506</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1534,13 +1540,13 @@
         <v>8076</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,13 +1561,13 @@
         <v>318670</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>594</v>
@@ -1570,13 +1576,13 @@
         <v>424050</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M14" s="7">
         <v>883</v>
@@ -1829,13 +1835,13 @@
         <v>1182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1844,13 +1850,13 @@
         <v>4487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1871,13 @@
         <v>273917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>457</v>
@@ -1880,10 +1886,10 @@
         <v>274440</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1895,13 +1901,13 @@
         <v>548358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,7 +1963,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1969,13 +1975,13 @@
         <v>21432</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1984,13 +1990,13 @@
         <v>16774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -1999,13 +2005,13 @@
         <v>38205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2026,13 @@
         <v>605316</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>935</v>
@@ -2035,13 +2041,13 @@
         <v>784276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="M23" s="7">
         <v>1517</v>
@@ -2050,13 +2056,13 @@
         <v>1389594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,7 +2118,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2124,13 +2130,13 @@
         <v>27705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2139,13 +2145,13 @@
         <v>14128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -2154,13 +2160,13 @@
         <v>41833</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2181,13 @@
         <v>830533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>1044</v>
@@ -2190,10 +2196,10 @@
         <v>852835</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>135</v>
@@ -2309,13 +2315,13 @@
         <v>124510</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2336,13 @@
         <v>3312347</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>5285</v>
@@ -2345,28 +2351,28 @@
         <v>3745019</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>8597</v>
       </c>
       <c r="N29" s="7">
-        <v>7057366</v>
+        <v>7057367</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2414,7 @@
         <v>8723</v>
       </c>
       <c r="N30" s="7">
-        <v>7181876</v>
+        <v>7181877</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -2422,7 +2428,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829ADC92-06BD-44E5-AA06-1A9D7F879321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9304CD77-C6DC-4FA9-AD14-F3B88F4CFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62B11D7E-935F-48B3-B3B1-89E8348AE38D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B497DAD4-224D-48B3-AF0A-17E3F9B197C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862657B7-4A8E-40E1-B661-3279F72C8A56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE2B0B4-1C59-4906-A239-F046B58EB2E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9304CD77-C6DC-4FA9-AD14-F3B88F4CFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E0886B-542B-4284-91DF-921F0FF015CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B497DAD4-224D-48B3-AF0A-17E3F9B197C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16A4E9BA-6117-476D-8BFB-689AC4CB2F34}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,436 +77,430 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,94%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE2B0B4-1C59-4906-A239-F046B58EB2E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B49509-647B-4764-A45F-A475151ADCF2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1388,10 +1382,10 @@
         <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,13 +1400,13 @@
         <v>315137</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -1421,13 +1415,13 @@
         <v>365085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>876</v>
@@ -1436,13 +1430,13 @@
         <v>680222</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,7 +1492,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1510,13 +1504,13 @@
         <v>3570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1525,13 +1519,13 @@
         <v>4506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1540,13 +1534,13 @@
         <v>8076</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,13 +1555,13 @@
         <v>318670</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>594</v>
@@ -1576,13 +1570,13 @@
         <v>424050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="M14" s="7">
         <v>883</v>
@@ -1835,13 +1829,13 @@
         <v>1182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1850,13 +1844,13 @@
         <v>4487</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1865,13 @@
         <v>273917</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>457</v>
@@ -1886,10 +1880,10 @@
         <v>274440</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1901,13 +1895,13 @@
         <v>548358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,7 +1957,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1975,13 +1969,13 @@
         <v>21432</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -1990,13 +1984,13 @@
         <v>16774</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -2005,13 +1999,13 @@
         <v>38205</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2020,13 @@
         <v>605316</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>935</v>
@@ -2041,13 +2035,13 @@
         <v>784276</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M23" s="7">
         <v>1517</v>
@@ -2056,13 +2050,13 @@
         <v>1389594</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,7 +2112,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2130,13 +2124,13 @@
         <v>27705</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2145,13 +2139,13 @@
         <v>14128</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -2160,13 +2154,13 @@
         <v>41833</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2175,13 @@
         <v>830533</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>1044</v>
@@ -2196,10 +2190,10 @@
         <v>852835</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>135</v>
@@ -2315,13 +2309,13 @@
         <v>124510</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2330,13 @@
         <v>3312347</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>5285</v>
@@ -2351,28 +2345,28 @@
         <v>3745019</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>8597</v>
       </c>
       <c r="N29" s="7">
-        <v>7057367</v>
+        <v>7057366</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,7 +2408,7 @@
         <v>8723</v>
       </c>
       <c r="N30" s="7">
-        <v>7181877</v>
+        <v>7181876</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -2428,7 +2422,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E0886B-542B-4284-91DF-921F0FF015CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54414FC-FF5C-4856-AE46-DDF391D93C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16A4E9BA-6117-476D-8BFB-689AC4CB2F34}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0FBEDB01-FE10-4F1A-83AF-799903BBB07D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="154">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -71,436 +71,430 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>98,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B49509-647B-4764-A45F-A475151ADCF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AE0E1E-88B8-4F14-AD94-188F12FD921B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1051,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1066,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1486</v>
+        <v>1735</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1087,7 +1081,7 @@
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>260139</v>
+        <v>311274</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1102,7 +1096,7 @@
         <v>537</v>
       </c>
       <c r="I5" s="7">
-        <v>270077</v>
+        <v>288069</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1117,7 +1111,7 @@
         <v>867</v>
       </c>
       <c r="N5" s="7">
-        <v>530214</v>
+        <v>599342</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1138,7 +1132,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1153,7 +1147,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -1168,7 +1162,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -1191,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>6659</v>
+        <v>6981</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1206,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>6736</v>
+        <v>6242</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1221,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>13395</v>
+        <v>13223</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -1242,7 +1236,7 @@
         <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>512638</v>
+        <v>511409</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1257,7 +1251,7 @@
         <v>708</v>
       </c>
       <c r="I8" s="7">
-        <v>546389</v>
+        <v>507414</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1272,7 +1266,7 @@
         <v>1087</v>
       </c>
       <c r="N8" s="7">
-        <v>1059027</v>
+        <v>1018822</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -1293,7 +1287,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -1308,7 +1302,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553125</v>
+        <v>513656</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1323,7 +1317,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072422</v>
+        <v>1032045</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1346,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>7103</v>
+        <v>6942</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -1361,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>8199</v>
+        <v>7676</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -1376,7 +1370,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>15302</v>
+        <v>14619</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>47</v>
@@ -1397,7 +1391,7 @@
         <v>350</v>
       </c>
       <c r="D11" s="7">
-        <v>315137</v>
+        <v>309108</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>54</v>
@@ -1412,7 +1406,7 @@
         <v>526</v>
       </c>
       <c r="I11" s="7">
-        <v>365085</v>
+        <v>341452</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1427,7 +1421,7 @@
         <v>876</v>
       </c>
       <c r="N11" s="7">
-        <v>680222</v>
+        <v>650559</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>54</v>
@@ -1448,7 +1442,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -1463,7 +1457,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1478,7 +1472,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -1501,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3570</v>
+        <v>3517</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>62</v>
@@ -1516,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4506</v>
+        <v>4193</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>66</v>
@@ -1531,7 +1525,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>8076</v>
+        <v>7710</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>67</v>
@@ -1552,7 +1546,7 @@
         <v>289</v>
       </c>
       <c r="D14" s="7">
-        <v>318670</v>
+        <v>309040</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -1567,7 +1561,7 @@
         <v>594</v>
       </c>
       <c r="I14" s="7">
-        <v>424050</v>
+        <v>471525</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -1576,13 +1570,13 @@
         <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>883</v>
       </c>
       <c r="N14" s="7">
-        <v>742720</v>
+        <v>780564</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>75</v>
@@ -1603,7 +1597,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -1618,7 +1612,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -1633,7 +1627,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1671,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1727</v>
+        <v>1483</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>81</v>
@@ -1686,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1727</v>
+        <v>1483</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>83</v>
@@ -1707,7 +1701,7 @@
         <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>195996</v>
+        <v>178066</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -1722,7 +1716,7 @@
         <v>484</v>
       </c>
       <c r="I17" s="7">
-        <v>227866</v>
+        <v>205040</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
@@ -1737,7 +1731,7 @@
         <v>762</v>
       </c>
       <c r="N17" s="7">
-        <v>423862</v>
+        <v>383106</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>88</v>
@@ -1758,7 +1752,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195996</v>
+        <v>178066</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -1773,7 +1767,7 @@
         <v>486</v>
       </c>
       <c r="I18" s="7">
-        <v>229593</v>
+        <v>206523</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -1788,7 +1782,7 @@
         <v>764</v>
       </c>
       <c r="N18" s="7">
-        <v>425589</v>
+        <v>384589</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -1811,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>3306</v>
+        <v>3121</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
@@ -1826,31 +1820,31 @@
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1182</v>
+        <v>1115</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>4487</v>
+        <v>4236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,46 +1856,46 @@
         <v>367</v>
       </c>
       <c r="D20" s="7">
-        <v>273917</v>
+        <v>266515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>457</v>
       </c>
       <c r="I20" s="7">
-        <v>274440</v>
+        <v>255941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>824</v>
       </c>
       <c r="N20" s="7">
-        <v>548358</v>
+        <v>522456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,7 +1907,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -1928,7 +1922,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -1943,7 +1937,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -1957,7 +1951,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1966,46 +1960,46 @@
         <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>21432</v>
+        <v>21328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>16774</v>
+        <v>15324</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
       </c>
       <c r="N22" s="7">
-        <v>38205</v>
+        <v>36652</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,46 +2011,46 @@
         <v>582</v>
       </c>
       <c r="D23" s="7">
-        <v>605316</v>
+        <v>602021</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>935</v>
       </c>
       <c r="I23" s="7">
-        <v>784276</v>
+        <v>831094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>1517</v>
       </c>
       <c r="N23" s="7">
-        <v>1389594</v>
+        <v>1433114</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,7 +2062,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626748</v>
+        <v>623349</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -2083,7 +2077,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801050</v>
+        <v>846418</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -2098,7 +2092,7 @@
         <v>1554</v>
       </c>
       <c r="N24" s="7">
-        <v>1427799</v>
+        <v>1469766</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -2112,7 +2106,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2121,46 +2115,46 @@
         <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>27705</v>
+        <v>23356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>14128</v>
+        <v>11549</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
       </c>
       <c r="N25" s="7">
-        <v>41833</v>
+        <v>34905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,28 +2166,28 @@
         <v>737</v>
       </c>
       <c r="D26" s="7">
-        <v>830533</v>
+        <v>904358</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>1044</v>
       </c>
       <c r="I26" s="7">
-        <v>852835</v>
+        <v>704938</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>135</v>
@@ -2202,7 +2196,7 @@
         <v>1781</v>
       </c>
       <c r="N26" s="7">
-        <v>1683368</v>
+        <v>1609296</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>136</v>
@@ -2223,7 +2217,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858238</v>
+        <v>927714</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -2238,7 +2232,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866963</v>
+        <v>716487</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -2253,7 +2247,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725201</v>
+        <v>1644201</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -2276,7 +2270,7 @@
         <v>61</v>
       </c>
       <c r="D28" s="7">
-        <v>69933</v>
+        <v>65414</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>139</v>
@@ -2291,31 +2285,31 @@
         <v>65</v>
       </c>
       <c r="I28" s="7">
-        <v>54577</v>
+        <v>49148</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
       </c>
       <c r="N28" s="7">
-        <v>124510</v>
+        <v>114562</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,46 +2321,46 @@
         <v>3312</v>
       </c>
       <c r="D29" s="7">
-        <v>3312347</v>
+        <v>3391790</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>5285</v>
       </c>
       <c r="I29" s="7">
-        <v>3745019</v>
+        <v>3605471</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>8597</v>
       </c>
       <c r="N29" s="7">
-        <v>7057366</v>
+        <v>6997261</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2372,7 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3382280</v>
+        <v>3457204</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -2393,7 +2387,7 @@
         <v>5350</v>
       </c>
       <c r="I30" s="7">
-        <v>3799596</v>
+        <v>3654619</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -2408,7 +2402,7 @@
         <v>8723</v>
       </c>
       <c r="N30" s="7">
-        <v>7181876</v>
+        <v>7111823</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -2422,7 +2416,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
